--- a/Project4910_M. Zhu(2001).xlsx
+++ b/Project4910_M. Zhu(2001).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A7787-806F-424C-930B-282CDC13B46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10C30C7-6AF9-CF49-A303-695EEBFDB57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{3B8EB99D-CB15-FB43-89F4-DFC6EC1A1E80}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3B8EB99D-CB15-FB43-89F4-DFC6EC1A1E80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project4910" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
   <si>
     <t xml:space="preserve"> [1] 'Large dermal plates'</t>
   </si>
@@ -543,6 +543,18 @@
   </si>
   <si>
     <t>N;0=0;1=1;2=?</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>NT?;0=0-;1=11;2=12;3=13</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=12;2=0-</t>
+  </si>
+  <si>
+    <t>NT?;0=0-1=11;2=12;3=13</t>
   </si>
 </sst>
 </file>
@@ -601,12 +613,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,22 +641,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>59266</xdr:rowOff>
+      <xdr:colOff>16932</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>364066</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>196391</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812799</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EABF1A2-95E4-124E-A96A-D8AE5F29404D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B287B6B1-CC6C-4775-8B58-F777AB077E6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,52 +672,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8246533" y="948266"/>
-          <a:ext cx="7776633" cy="7045925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>21164</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>245533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>351517</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>173566</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5E3359-5293-5B6B-248B-DB1136287983}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8250764" y="245533"/>
-          <a:ext cx="7759853" cy="613833"/>
+          <a:off x="10447865" y="304798"/>
+          <a:ext cx="10752667" cy="6720417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8727A672-4C87-1E44-AFC7-81EF2DA9A1C7}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,16 +1018,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1121,10 +1089,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1167,7 +1132,7 @@
       <c r="B11" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1189,7 +1154,7 @@
       <c r="B13" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1211,8 +1176,8 @@
       <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>164</v>
+      <c r="C15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1266,7 +1231,7 @@
       <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1299,7 +1264,7 @@
       <c r="B23" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1354,7 +1319,7 @@
       <c r="B28" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1376,7 +1341,7 @@
       <c r="B30" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1406,10 +1371,10 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1417,10 +1382,10 @@
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1431,7 +1396,7 @@
       <c r="B35" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1439,10 +1404,10 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1450,10 +1415,10 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1461,10 +1426,10 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1472,10 +1437,10 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1483,10 +1448,10 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1563,7 +1528,7 @@
       <c r="B47" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1692,8 +1657,8 @@
       <c r="B59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>164</v>
+      <c r="C59" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1714,7 +1679,7 @@
       <c r="B61" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1835,7 +1800,7 @@
       <c r="B72" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1901,7 +1866,7 @@
       <c r="B78" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1912,7 +1877,7 @@
       <c r="B79" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1923,7 +1888,7 @@
       <c r="B80" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1934,7 +1899,7 @@
       <c r="B81" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1978,8 +1943,8 @@
       <c r="B85" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>164</v>
+      <c r="C85" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2088,7 +2053,7 @@
       <c r="B95" t="s">
         <v>165</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2121,8 +2086,8 @@
       <c r="B98" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>164</v>
+      <c r="C98" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2154,8 +2119,8 @@
       <c r="B101" t="s">
         <v>165</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>164</v>
+      <c r="C101" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,10 +2312,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
-      </c>
-      <c r="C119" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2470,7 +2432,7 @@
       <c r="B130" t="s">
         <v>165</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2599,10 +2561,10 @@
       <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C142" s="3" t="s">
+      <c r="B142" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2611,10 +2573,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C143" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2646,8 +2608,8 @@
       <c r="B146" t="s">
         <v>165</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>164</v>
+      <c r="C146" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2776,10 +2738,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>165</v>
-      </c>
-      <c r="C158" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2798,21 +2757,15 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
-      </c>
-      <c r="C160" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
-      </c>
-      <c r="C161" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Project4910_M. Zhu(2001).xlsx
+++ b/Project4910_M. Zhu(2001).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10C30C7-6AF9-CF49-A303-695EEBFDB57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C90C5D-13D8-4C53-B0F5-03D99531FC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3B8EB99D-CB15-FB43-89F4-DFC6EC1A1E80}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="15870" windowHeight="18585" xr2:uid="{3B8EB99D-CB15-FB43-89F4-DFC6EC1A1E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4910" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="172">
   <si>
     <t xml:space="preserve"> [1] 'Large dermal plates'</t>
   </si>
@@ -552,9 +552,6 @@
   </si>
   <si>
     <t>NT?;0=11;1=12;2=0-</t>
-  </si>
-  <si>
-    <t>NT?;0=0-1=11;2=12;3=13</t>
   </si>
 </sst>
 </file>
@@ -1004,20 +1001,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8727A672-4C87-1E44-AFC7-81EF2DA9A1C7}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>160</v>
       </c>
@@ -1029,7 +1026,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1048,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1062,7 +1059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1081,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1089,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1100,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1122,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1133,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1144,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1180,7 +1177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1210,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1221,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1235,7 +1232,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1254,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1265,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1279,7 +1276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1298,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1345,7 +1342,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1353,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1378,7 +1375,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1400,7 +1397,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1411,7 +1408,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1433,7 +1430,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1444,7 +1441,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1455,7 +1452,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1488,7 +1485,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1499,7 +1496,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1521,7 +1518,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1532,7 +1529,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1543,7 +1540,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1554,7 +1551,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1595,7 +1592,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1628,7 +1625,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1639,7 +1636,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1661,7 +1658,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1672,7 +1669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1683,7 +1680,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1694,7 +1691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1716,7 +1713,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1727,7 +1724,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1749,7 +1746,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1760,7 +1757,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1793,7 +1790,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1815,7 +1812,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1837,7 +1834,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1848,7 +1845,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1870,7 +1867,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1881,7 +1878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1958,7 +1955,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1969,7 +1966,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -1980,7 +1977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -1991,7 +1988,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2002,7 +1999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2013,7 +2010,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2024,7 +2021,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2035,7 +2032,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2046,7 +2043,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2057,7 +2054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2068,7 +2065,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2079,7 +2076,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2101,7 +2098,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2112,7 +2109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2123,7 +2120,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2134,7 +2131,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2145,7 +2142,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2156,7 +2153,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2167,7 +2164,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2178,7 +2175,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2189,7 +2186,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2197,7 +2194,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2208,7 +2205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2219,7 +2216,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2241,7 +2238,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2252,7 +2249,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2263,7 +2260,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2285,7 +2282,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2315,7 +2312,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2337,7 +2334,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2348,7 +2345,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2359,7 +2356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2403,7 +2400,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2414,7 +2411,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -2436,7 +2433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -2447,7 +2444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -2458,7 +2455,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -2469,7 +2466,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -2480,7 +2477,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -2491,7 +2488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -2502,7 +2499,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -2513,7 +2510,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -2524,7 +2521,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -2535,7 +2532,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -2557,7 +2554,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -2579,7 +2576,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -2601,7 +2598,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -2612,7 +2609,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -2623,7 +2620,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -2634,7 +2631,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -2656,7 +2653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -2667,7 +2664,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -2678,7 +2675,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -2700,7 +2697,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -2711,7 +2708,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -2733,15 +2730,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -2752,7 +2749,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -2760,7 +2757,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
